--- a/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
+++ b/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
@@ -28,12 +28,12 @@
     <definedName name="P1._Crear_mística_y_nueva_cultura_organizativa__Objetivo">'[1]CMI-CE'!$E$77</definedName>
     <definedName name="P2._Desarrollar_liderazgo_en_todos_los_niveles_de_mando__Objetivo">'[1]CMI-CE'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>=</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>PR, GR, AS</t>
+  </si>
+  <si>
+    <t>I1. Innovar el proceso de producción estadística</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -699,7 +702,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
@@ -761,9 +764,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,13 +862,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -882,33 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1659,10 +1662,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1683,8 +1686,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
         <v>57</v>
@@ -1703,8 +1706,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="75" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="8"/>
@@ -1725,8 +1728,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
         <v>62</v>
@@ -1745,8 +1748,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="75" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1766,8 +1769,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="76"/>
       <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
@@ -1785,10 +1788,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="75" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="6"/>
@@ -1809,8 +1812,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>74</v>
@@ -1829,8 +1832,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="77" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="6"/>
@@ -1851,8 +1854,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>79</v>
@@ -1871,8 +1874,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="75" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="6"/>
@@ -1893,8 +1896,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>84</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="20" spans="1:8" ht="62.25" customHeight="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="75" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="6"/>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="21" spans="1:8" ht="70.5" customHeight="1">
       <c r="A21" s="59"/>
-      <c r="B21" s="74"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -1958,7 +1961,7 @@
       <c r="A22" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="75" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6"/>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="23" spans="1:8" ht="84.75" customHeight="1">
       <c r="A23" s="60"/>
-      <c r="B23" s="75"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>98</v>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="60"/>
-      <c r="B24" s="75"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>100</v>
@@ -2014,13 +2017,13 @@
       <c r="G24" s="9">
         <v>20</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="85" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="60"/>
-      <c r="B25" s="75"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
         <v>102</v>
@@ -2034,13 +2037,13 @@
       <c r="G25" s="9">
         <v>10</v>
       </c>
-      <c r="H25" s="77"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:8" ht="69.75" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
         <v>104</v>
@@ -2054,13 +2057,13 @@
       <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="87"/>
     </row>
     <row r="27" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="75" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2080,8 +2083,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="76"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2099,8 +2102,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="6"/>
@@ -2121,8 +2124,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
         <v>114</v>
@@ -2142,21 +2145,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2265,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="18"/>

--- a/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
+++ b/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Estrateg" sheetId="18396" r:id="rId1"/>
-    <sheet name="Ficha inici" sheetId="18398" r:id="rId2"/>
+    <sheet name="Iniciativa01" sheetId="18398" r:id="rId2"/>
     <sheet name="Ficha cart" sheetId="18399" r:id="rId3"/>
+    <sheet name="Iniciativa02" sheetId="18400" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="F1._Generar_mayor_rentabilidad__Objetivo">'[1]CMI-CE'!$E$8</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>=</t>
   </si>
@@ -863,55 +864,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,7 +921,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1569,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -1665,7 +1738,7 @@
       <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="84" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1687,7 +1760,7 @@
     </row>
     <row r="9" spans="1:8" ht="75.75" customHeight="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="78"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
         <v>57</v>
@@ -1707,7 +1780,7 @@
     </row>
     <row r="10" spans="1:8" ht="75.75" customHeight="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="8"/>
@@ -1729,7 +1802,7 @@
     </row>
     <row r="11" spans="1:8" ht="75.75" customHeight="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
         <v>62</v>
@@ -1749,7 +1822,7 @@
     </row>
     <row r="12" spans="1:8" ht="75.75" customHeight="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1770,7 +1843,7 @@
     </row>
     <row r="13" spans="1:8" ht="75.75" customHeight="1">
       <c r="A13" s="83"/>
-      <c r="B13" s="76"/>
+      <c r="B13" s="75"/>
       <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
@@ -1788,10 +1861,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="73" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="6"/>
@@ -1812,8 +1885,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>74</v>
@@ -1832,8 +1905,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="84" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="6"/>
@@ -1854,8 +1927,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>79</v>
@@ -1874,8 +1947,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="73" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="6"/>
@@ -1896,8 +1969,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>84</v>
@@ -1917,7 +1990,7 @@
     </row>
     <row r="20" spans="1:8" ht="62.25" customHeight="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="73" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="6"/>
@@ -1939,7 +2012,7 @@
     </row>
     <row r="21" spans="1:8" ht="70.5" customHeight="1">
       <c r="A21" s="59"/>
-      <c r="B21" s="76"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -1961,7 +2034,7 @@
       <c r="A22" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="73" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6"/>
@@ -1983,7 +2056,7 @@
     </row>
     <row r="23" spans="1:8" ht="84.75" customHeight="1">
       <c r="A23" s="60"/>
-      <c r="B23" s="84"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>98</v>
@@ -2003,7 +2076,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="60"/>
-      <c r="B24" s="84"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>100</v>
@@ -2017,13 +2090,13 @@
       <c r="G24" s="9">
         <v>20</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="76" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="60"/>
-      <c r="B25" s="84"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
         <v>102</v>
@@ -2037,13 +2110,13 @@
       <c r="G25" s="9">
         <v>10</v>
       </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8" ht="69.75" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
         <v>104</v>
@@ -2057,13 +2130,13 @@
       <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="73" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2083,8 +2156,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="75"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2102,8 +2175,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="73" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="6"/>
@@ -2124,8 +2197,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
         <v>114</v>
@@ -2145,11 +2218,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -2160,6 +2228,11 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2170,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2579,24 +2652,24 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
-    <cfRule type="expression" dxfId="11" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
       <formula>A4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="47" stopIfTrue="1">
       <formula>A4=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
       <formula>A4=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B23">
-    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="43" stopIfTrue="1">
       <formula>A19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="44" stopIfTrue="1">
       <formula>A19=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="45" stopIfTrue="1">
       <formula>A19=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2746,27 +2819,381 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>A2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>A2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>A2=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="2" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>A10=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>A10=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>A10=3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15">
+      <c r="B1" s="28"/>
+      <c r="C1" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="28"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="25.5">
+      <c r="C3" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" customHeight="1">
+      <c r="C4" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="2:10" ht="24.75" customHeight="1">
+      <c r="C5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.25" customHeight="1">
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:10" ht="26.25" customHeight="1">
+      <c r="C7" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" ht="25.5">
+      <c r="C8" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" s="69"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" ht="45">
+      <c r="C10" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="66"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="2:10" ht="38.25">
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B13" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="72">
+        <v>10</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="34">
+        <f>+G14*$H$24</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="2:10" ht="36" customHeight="1">
+      <c r="B15" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="34">
+        <v>25000</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B16" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:10" ht="39.75" customHeight="1">
+      <c r="B17" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="H17" s="34">
+        <v>25000</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="C18" s="71"/>
+      <c r="G18" s="33">
+        <f>SUM(G13:G17)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="36">
+        <f>SUM(J13:J17)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="C20" s="71"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="71"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B13:B17">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>A13=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>A13=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>A13=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
+++ b/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Estrateg" sheetId="18396" r:id="rId1"/>
-    <sheet name="Iniciativa01" sheetId="18398" r:id="rId2"/>
+    <sheet name="Iniciativa01 MEG" sheetId="18398" r:id="rId2"/>
     <sheet name="Ficha cart" sheetId="18399" r:id="rId3"/>
-    <sheet name="Iniciativa02" sheetId="18400" r:id="rId4"/>
+    <sheet name="Iniciativa02 MEG" sheetId="18400" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -29,12 +29,12 @@
     <definedName name="P1._Crear_mística_y_nueva_cultura_organizativa__Objetivo">'[1]CMI-CE'!$E$77</definedName>
     <definedName name="P2._Desarrollar_liderazgo_en_todos_los_niveles_de_mando__Objetivo">'[1]CMI-CE'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="137">
   <si>
     <t>=</t>
   </si>
@@ -452,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -525,12 +525,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,19 +660,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -700,10 +687,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
@@ -765,9 +765,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,22 +797,22 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -821,13 +821,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,25 +836,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,56 +863,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,43 +921,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1642,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1702,7 @@
       <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1760,7 +1724,7 @@
     </row>
     <row r="9" spans="1:8" ht="75.75" customHeight="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
         <v>57</v>
@@ -1802,7 +1766,7 @@
     </row>
     <row r="11" spans="1:8" ht="75.75" customHeight="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="75"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
         <v>62</v>
@@ -1843,7 +1807,7 @@
     </row>
     <row r="13" spans="1:8" ht="75.75" customHeight="1">
       <c r="A13" s="83"/>
-      <c r="B13" s="75"/>
+      <c r="B13" s="74"/>
       <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
@@ -1861,7 +1825,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="75" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="73" t="s">
@@ -1885,8 +1849,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>74</v>
@@ -1905,8 +1869,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="6"/>
@@ -1927,8 +1891,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>79</v>
@@ -1947,7 +1911,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="73" t="s">
         <v>81</v>
       </c>
@@ -1969,8 +1933,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>84</v>
@@ -2012,7 +1976,7 @@
     </row>
     <row r="21" spans="1:8" ht="70.5" customHeight="1">
       <c r="A21" s="59"/>
-      <c r="B21" s="75"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -2056,7 +2020,7 @@
     </row>
     <row r="23" spans="1:8" ht="84.75" customHeight="1">
       <c r="A23" s="60"/>
-      <c r="B23" s="74"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>98</v>
@@ -2076,7 +2040,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="60"/>
-      <c r="B24" s="74"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>100</v>
@@ -2090,13 +2054,13 @@
       <c r="G24" s="9">
         <v>20</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="85" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="60"/>
-      <c r="B25" s="74"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
         <v>102</v>
@@ -2110,13 +2074,13 @@
       <c r="G25" s="9">
         <v>10</v>
       </c>
-      <c r="H25" s="77"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:8" ht="69.75" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
         <v>104</v>
@@ -2130,10 +2094,10 @@
       <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="87"/>
     </row>
     <row r="27" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="88" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -2156,8 +2120,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="74"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2175,7 +2139,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A29" s="80"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="73" t="s">
         <v>111</v>
       </c>
@@ -2197,8 +2161,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
         <v>114</v>
@@ -2218,21 +2182,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,7 +2208,7 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2652,24 +2616,24 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
-    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="46" stopIfTrue="1">
       <formula>A4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="47" stopIfTrue="1">
       <formula>A4=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="48" stopIfTrue="1">
       <formula>A4=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B23">
-    <cfRule type="expression" dxfId="14" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>A19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="44" stopIfTrue="1">
       <formula>A19=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="45" stopIfTrue="1">
       <formula>A19=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2819,24 +2783,24 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>A2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="17" stopIfTrue="1">
       <formula>A2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
       <formula>A2=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>A10=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>A10=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>A10=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2846,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2858,340 +2822,411 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15">
-      <c r="B1" s="28"/>
-      <c r="C1" s="65" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="71"/>
+    </row>
+    <row r="2" spans="2:10" ht="15">
+      <c r="C2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="14">
+        <v>40909</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="14">
+        <v>41090</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="28"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="28"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="2:10" ht="25.5">
-      <c r="C3" s="67" t="s">
+      <c r="D7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="28"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" customHeight="1">
-      <c r="C4" s="67" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C5" s="67" t="s">
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="2:10" ht="25.5">
+      <c r="C11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="2:10" ht="17.25" customHeight="1">
-      <c r="C6" s="67" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="2:10" ht="26.25" customHeight="1">
-      <c r="C7" s="67" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="32.25" customHeight="1">
+      <c r="C13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:10" ht="25.5">
-      <c r="C8" s="68" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="2:10" ht="36.75" customHeight="1">
+      <c r="C14" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D14" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="C9" s="69"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" ht="45">
-      <c r="C10" s="65" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" ht="36" customHeight="1">
+      <c r="C15" s="69"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" ht="36.75" customHeight="1">
+      <c r="C16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="C11" s="66"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" ht="38.25">
-      <c r="C12" s="26" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10" ht="39.75" customHeight="1">
+      <c r="C17" s="66"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" ht="38.25">
+      <c r="C18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J18" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B13" s="32" t="s">
+    <row r="19" spans="2:10" ht="25.5">
+      <c r="B19" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C19" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E19" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G19" s="33">
         <v>0.1</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H19" s="72">
         <v>10</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="33">
+      <c r="I19" s="35"/>
+      <c r="J19" s="33">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B14" s="32" t="s">
+    <row r="20" spans="2:10" ht="25.5">
+      <c r="B20" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C20" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E20" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F20" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G20" s="33">
         <v>0.1</v>
       </c>
-      <c r="H14" s="34">
-        <f>+G14*$H$24</f>
+      <c r="H20" s="34">
+        <f>+G20*$H$24</f>
+        <v>1000</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="2:10" ht="25.5">
+      <c r="B21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" ht="36" customHeight="1">
-      <c r="B15" s="32" t="s">
+      <c r="C21" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="34">
+        <v>25000</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="2:10" ht="25.5">
+      <c r="B22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="37" t="s">
+      <c r="C22" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F22" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G22" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="2:10" ht="38.25">
+      <c r="B23" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="H23" s="34">
+        <v>25000</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="71"/>
+      <c r="G24" s="33">
+        <f>SUM(G19:G23)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="36">
+        <f>SUM(J19:J23)</f>
         <v>0.1</v>
       </c>
-      <c r="H15" s="34">
-        <v>25000</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B16" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="34">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" ht="39.75" customHeight="1">
-      <c r="B17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="H17" s="34">
-        <v>25000</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="C18" s="71"/>
-      <c r="G18" s="33">
-        <f>SUM(G13:G17)</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="34">
-        <v>10000</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="36">
-        <f>SUM(J13:J17)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="C19" s="71"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="C20" s="71"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="C21" s="71"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:B17">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>A13=1</formula>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B6 B19:B23">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>A4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>A13=2</formula>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>A4=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>A13=3</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>A4=3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
+++ b/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
   <si>
     <t>=</t>
   </si>
@@ -411,9 +411,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Equipo de investrigación</t>
-  </si>
-  <si>
     <t>Selección del equipo de investigación</t>
   </si>
   <si>
@@ -445,6 +442,24 @@
   </si>
   <si>
     <t>I1. Innovar el proceso de producción estadística</t>
+  </si>
+  <si>
+    <t>Concientizar a la Sociedad para una mejor captación de información estadística</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Plan de recolección de datos</t>
+  </si>
+  <si>
+    <t>Difusión. Censos e Informática</t>
+  </si>
+  <si>
+    <t>Resultado más exacto en información estadística</t>
+  </si>
+  <si>
+    <t>Equipo de investigación</t>
   </si>
 </sst>
 </file>
@@ -543,13 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +721,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -864,16 +879,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,21 +922,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +938,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -1699,10 +1730,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="86" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1723,8 +1754,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
         <v>57</v>
@@ -1743,8 +1774,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="81" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="8"/>
@@ -1765,8 +1796,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
         <v>62</v>
@@ -1785,8 +1816,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="81" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1806,8 +1837,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="82"/>
       <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
@@ -1825,10 +1856,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="81" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="6"/>
@@ -1849,8 +1880,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>74</v>
@@ -1869,8 +1900,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="86" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="6"/>
@@ -1891,8 +1922,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>79</v>
@@ -1911,8 +1942,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="81" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="6"/>
@@ -1933,8 +1964,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>84</v>
@@ -1954,7 +1985,7 @@
     </row>
     <row r="20" spans="1:8" ht="62.25" customHeight="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="81" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="6"/>
@@ -1976,7 +2007,7 @@
     </row>
     <row r="21" spans="1:8" ht="70.5" customHeight="1">
       <c r="A21" s="59"/>
-      <c r="B21" s="74"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -1998,7 +2029,7 @@
       <c r="A22" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="81" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6"/>
@@ -2020,7 +2051,7 @@
     </row>
     <row r="23" spans="1:8" ht="84.75" customHeight="1">
       <c r="A23" s="60"/>
-      <c r="B23" s="84"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>98</v>
@@ -2040,7 +2071,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="60"/>
-      <c r="B24" s="84"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>100</v>
@@ -2054,13 +2085,13 @@
       <c r="G24" s="9">
         <v>20</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="89" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="60"/>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
         <v>102</v>
@@ -2074,13 +2105,13 @@
       <c r="G25" s="9">
         <v>10</v>
       </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="90"/>
     </row>
     <row r="26" spans="1:8" ht="69.75" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
         <v>104</v>
@@ -2094,13 +2125,13 @@
       <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="81" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2120,8 +2151,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="82"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2139,8 +2170,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="6"/>
@@ -2161,8 +2192,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
         <v>114</v>
@@ -2182,6 +2213,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -2190,13 +2228,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,7 +2239,7 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2259,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2305,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="18"/>
@@ -2476,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="33">
         <v>0.1</v>
@@ -2503,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="33">
         <v>0.1</v>
@@ -2529,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="33">
         <v>0.1</v>
@@ -2554,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="33">
         <v>0.25</v>
@@ -2579,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="33">
         <v>0.45</v>
@@ -2646,7 +2677,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2813,13 +2844,15 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2829,7 +2862,7 @@
       <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
@@ -2848,7 +2881,7 @@
     <row r="3" spans="2:10">
       <c r="B3" s="28"/>
       <c r="C3" s="64"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -2863,7 +2896,7 @@
       <c r="C4" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -2878,7 +2911,7 @@
     <row r="5" spans="2:10" ht="24.75" customHeight="1">
       <c r="B5" s="31"/>
       <c r="C5" s="65"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -2891,8 +2924,8 @@
       <c r="C6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>116</v>
+      <c r="D6" s="75" t="s">
+        <v>137</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="15"/>
@@ -2906,7 +2939,7 @@
       <c r="C7" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="46"/>
@@ -2919,7 +2952,7 @@
     <row r="8" spans="2:10">
       <c r="B8" s="28"/>
       <c r="C8" s="66"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -2927,97 +2960,97 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" ht="25.5">
       <c r="C9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" customHeight="1">
       <c r="C10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="20"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="25.5">
       <c r="C11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="39" customHeight="1">
       <c r="C12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="2:10" ht="32.25" customHeight="1">
+      <c r="D12" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="44.25" customHeight="1">
       <c r="C13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1">
-      <c r="C14" s="68" t="s">
+      <c r="D13" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="57.75" customHeight="1">
+      <c r="C14" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="D14" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="36" customHeight="1">
       <c r="C15" s="69"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3029,7 +3062,7 @@
       <c r="C16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -3039,7 +3072,7 @@
     </row>
     <row r="17" spans="2:10" ht="39.75" customHeight="1">
       <c r="C17" s="66"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3073,21 +3106,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="25.5">
+    <row r="19" spans="2:10" ht="15.75">
       <c r="B19" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>125</v>
-      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="33">
         <v>0.1</v>
@@ -3100,21 +3129,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="25.5">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="33">
         <v>0.1</v>
@@ -3126,21 +3151,17 @@
       <c r="I20" s="35"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="33">
         <v>0.1</v>
@@ -3151,21 +3172,17 @@
       <c r="I21" s="35"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="2:10" ht="25.5">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="33">
         <v>0.25</v>
@@ -3176,21 +3193,17 @@
       <c r="I22" s="35"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="2:10" ht="38.25">
+    <row r="23" spans="2:10" ht="15.75">
       <c r="B23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>131</v>
-      </c>
       <c r="F23" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="33">
         <v>0.45</v>

--- a/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
+++ b/ tsp01-contratos-clientes/BSC/MEG_Matriz_Ficha_iniciativa-_formato.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>=</t>
   </si>
@@ -459,7 +459,28 @@
     <t>Resultado más exacto en información estadística</t>
   </si>
   <si>
-    <t>Equipo de investigación</t>
+    <t>Listado de equipo de investigación</t>
+  </si>
+  <si>
+    <t>Cronograma de actividades</t>
+  </si>
+  <si>
+    <t>Elaborar Plan de mejora de Imagen institucional INEI</t>
+  </si>
+  <si>
+    <t>Difusión de publicidad acerca de las actividades de INEI (Imagen institucional)</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GR, DNCE</t>
+  </si>
+  <si>
+    <t>Plan de trabajo</t>
+  </si>
+  <si>
+    <t>Puesto en marcha de publicidad de INEI (Periódico, redes sociales, TV y radio)</t>
   </si>
 </sst>
 </file>
@@ -558,13 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -639,6 +647,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -755,12 +776,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,7 +828,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,6 +914,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,10 +942,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,35 +968,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1654,16 +1679,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
@@ -1676,7 +1701,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="5"/>
@@ -1688,49 +1713,49 @@
       <c r="H4" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="86" t="s">
@@ -1749,12 +1774,12 @@
       <c r="G8" s="9">
         <v>85</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="87"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
@@ -1769,13 +1794,13 @@
       <c r="G9" s="9">
         <v>90</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="93"/>
+      <c r="B10" s="82" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="8"/>
@@ -1791,13 +1816,13 @@
       <c r="G10" s="9">
         <v>92</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
         <v>62</v>
@@ -1816,8 +1841,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="81" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="82" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1837,8 +1862,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="83"/>
       <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
@@ -1856,10 +1881,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="6"/>
@@ -1880,8 +1905,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>74</v>
@@ -1900,7 +1925,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A16" s="93"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="86" t="s">
         <v>76</v>
       </c>
@@ -1922,7 +1947,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="87"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
@@ -1942,8 +1967,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="82" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="6"/>
@@ -1964,8 +1989,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>84</v>
@@ -1984,8 +2009,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="81" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="82" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="6"/>
@@ -2006,8 +2031,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -2026,10 +2051,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="69" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6"/>
@@ -2039,10 +2064,10 @@
       <c r="E22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="59" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2050,8 +2075,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="88"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>98</v>
@@ -2070,8 +2095,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="60"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>100</v>
@@ -2085,13 +2110,13 @@
       <c r="G24" s="9">
         <v>20</v>
       </c>
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="79" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="60"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
         <v>102</v>
@@ -2105,13 +2130,13 @@
       <c r="G25" s="9">
         <v>10</v>
       </c>
-      <c r="H25" s="90"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="82"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
         <v>104</v>
@@ -2125,13 +2150,13 @@
       <c r="G26" s="9">
         <v>50</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="82" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2140,10 +2165,10 @@
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="60">
         <v>0.8</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="60">
         <v>0.9</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2151,27 +2176,27 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="83"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="60">
         <v>0.7</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="60">
         <v>0.9</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="82" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="6"/>
@@ -2181,19 +2206,19 @@
       <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="60">
         <v>0.24</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="60">
         <v>0.12</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="55" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
         <v>114</v>
@@ -2201,10 +2226,10 @@
       <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="62">
+      <c r="F30" s="60">
         <v>0.4</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="60">
         <v>0.2</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -2213,13 +2238,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -2228,6 +2246,13 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,15 +2263,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="69" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
@@ -2255,10 +2280,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
@@ -2275,9 +2300,9 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="28"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -2286,13 +2311,13 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" ht="18">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -2300,14 +2325,14 @@
       <c r="I4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18">
-      <c r="B5" s="31"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -2316,29 +2341,29 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10" ht="18">
-      <c r="B6" s="31"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="2:10" ht="15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="65" t="s">
+    <row r="7" spans="2:10" ht="26.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -2346,9 +2371,9 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="28"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -2356,85 +2381,85 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="C9" s="67" t="s">
+    <row r="9" spans="2:10" ht="25.5">
+      <c r="C9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="C12" s="67" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" ht="25.5">
+      <c r="C12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="2:10" ht="25.5">
-      <c r="C13" s="67" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="38.25">
+      <c r="C13" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="78" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="12"/>
@@ -2445,8 +2470,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="69"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2455,10 +2480,10 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="15">
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -2467,8 +2492,8 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="66"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2477,171 +2502,179 @@
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="38.25">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="12" customHeight="1">
-      <c r="B19" s="32" t="s">
+    <row r="19" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>0.1</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="70">
         <v>10</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33">
+      <c r="I19" s="34"/>
+      <c r="J19" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <v>0.1</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <f>+G20*$H$24</f>
         <v>1000</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="32">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>0.1</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>25000</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="32">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="32">
         <v>0.25</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>10000</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="45.75" customHeight="1">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <v>0.45</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <v>25000</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="32">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f>SUM(G19:G23)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>10000</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <f>SUM(J19:J23)</f>
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2698,118 +2731,118 @@
       <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>39994</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>40025</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="25.5">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>39994</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="25.5">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="2:8" ht="15.75">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2841,28 +2874,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="69" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="C1" s="71"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="2:10" ht="15">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
@@ -2879,9 +2913,9 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="28"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -2890,13 +2924,13 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -2904,14 +2938,14 @@
       <c r="I4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -2920,29 +2954,29 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="65" t="s">
+    <row r="7" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B7" s="27"/>
+      <c r="C7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -2950,9 +2984,9 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="28"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -2960,11 +2994,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10" ht="25.5">
-      <c r="C9" s="67" t="s">
+    <row r="9" spans="2:10" ht="38.25">
+      <c r="C9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="2"/>
@@ -2975,28 +3009,28 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" customHeight="1">
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="68" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="76"/>
+      <c r="I10" s="29" t="s">
         <v>139</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="25.5">
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="68" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="2"/>
@@ -3007,10 +3041,10 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="39" customHeight="1">
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E12" s="2"/>
@@ -3021,10 +3055,10 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="44.25" customHeight="1">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="2"/>
@@ -3035,10 +3069,10 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="57.75" customHeight="1">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="68" t="s">
         <v>140</v>
       </c>
       <c r="E14" s="2"/>
@@ -3048,9 +3082,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="36" customHeight="1">
-      <c r="C15" s="69"/>
-      <c r="D15" s="73"/>
+    <row r="15" spans="2:10" ht="25.5" customHeight="1">
+      <c r="C15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3059,10 +3093,10 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="36.75" customHeight="1">
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -3070,9 +3104,9 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="2:10" ht="39.75" customHeight="1">
-      <c r="C17" s="66"/>
-      <c r="D17" s="77"/>
+    <row r="17" spans="2:10" ht="21" customHeight="1">
+      <c r="C17" s="64"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3081,157 +3115,156 @@
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="38.25">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75">
-      <c r="B19" s="32" t="s">
+    <row r="19" spans="2:10" ht="25.5">
+      <c r="B19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="37" t="s">
+      <c r="C19" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>0.1</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="70">
         <v>10</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33">
+      <c r="I19" s="34"/>
+      <c r="J19" s="32">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75">
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="2:10" ht="25.5">
+      <c r="B20" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <v>0.1</v>
       </c>
-      <c r="H20" s="34">
-        <f>+G20*$H$24</f>
+      <c r="H20" s="33">
+        <f>+G20*$H$23</f>
         <v>1000</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75">
-      <c r="B21" s="32" t="s">
+      <c r="I20" s="34"/>
+      <c r="J20" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="25.5">
+      <c r="B21" s="31"/>
+      <c r="C21" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="33">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="43.5" customHeight="1">
+      <c r="B22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="37" t="s">
+      <c r="C22" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G22" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="33">
+        <v>100000</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32">
         <v>0.1</v>
       </c>
-      <c r="H21" s="34">
-        <v>25000</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75">
-      <c r="B22" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="H22" s="34">
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="69"/>
+      <c r="G23" s="32">
+        <f>SUM(G19:G22)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="33">
         <v>10000</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75">
-      <c r="B23" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="H23" s="34">
-        <v>25000</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="C24" s="71"/>
-      <c r="G24" s="33">
-        <f>SUM(G19:G23)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="34">
-        <v>10000</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="36">
-        <f>SUM(J19:J23)</f>
-        <v>0.1</v>
+      <c r="I23" s="2"/>
+      <c r="J23" s="35">
+        <f>SUM(J19:J22)</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B6 B19:B23">
+  <conditionalFormatting sqref="B4:B6 B19:B22">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>A4=1</formula>
     </cfRule>
